--- a/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
@@ -993,7 +993,7 @@
     <t>КИРГИЗИЯ</t>
   </si>
   <si>
-    <t>НЕ КЛАССИФИЦИРОВАНО</t>
+    <t>СВЕТЛО-ЖЕЛТЫЙ</t>
   </si>
   <si>
     <t>70-72</t>
@@ -1002,13 +1002,13 @@
     <t>КИРИБАТИ</t>
   </si>
   <si>
-    <t>НЕ ОПРЕДЕЛЕНО</t>
+    <t>ТЕМНО-ЖЕЛТЫЙ</t>
   </si>
   <si>
     <t>72-74</t>
   </si>
   <si>
-    <t>СВЕТЛО-ЖЕЛТЫЙ</t>
+    <t>ЛИЛОВЫЙ</t>
   </si>
   <si>
     <t>74-76</t>
@@ -1017,7 +1017,7 @@
     <t>КОКОСОВЫЕ ОСТРОВА (ОСТРОВА КИЛИНГ)</t>
   </si>
   <si>
-    <t>ТЕМНО-ЖЕЛТЫЙ</t>
+    <t>СЕРЫЙ/ЗЕЛЕНЫЙ</t>
   </si>
   <si>
     <t>76-78</t>
@@ -1026,7 +1026,7 @@
     <t>КОЛУМБИЯ</t>
   </si>
   <si>
-    <t>ЛИЛОВЫЙ</t>
+    <t>СИНЕ-ЗЕЛЕНЫЙ</t>
   </si>
   <si>
     <t>78-80</t>
@@ -1035,7 +1035,7 @@
     <t>КОМОРСКИЕ ОСТРОВА</t>
   </si>
   <si>
-    <t>СЕРЫЙ/ЗЕЛЕНЫЙ</t>
+    <t>БЕЛО-ГОЛУБОЙ</t>
   </si>
   <si>
     <t>80-82</t>
@@ -1044,7 +1044,7 @@
     <t>КОСТА-РИКА</t>
   </si>
   <si>
-    <t>СИНЕ-ЗЕЛЕНЫЙ</t>
+    <t>БЕЛО-СИНИЙ</t>
   </si>
   <si>
     <t>82-84</t>
@@ -1053,7 +1053,7 @@
     <t>КОТ-Д'ИВУАР</t>
   </si>
   <si>
-    <t>БЕЛО-ГОЛУБОЙ</t>
+    <t>СВЕТЛО-ГОЛУБОЙ</t>
   </si>
   <si>
     <t>84-86</t>
@@ -1062,7 +1062,7 @@
     <t>КУБА</t>
   </si>
   <si>
-    <t>БЕЛО-СИНИЙ</t>
+    <t>ЗЕЛЕНЫЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>86-88</t>
@@ -1071,7 +1071,7 @@
     <t>КУВЕЙТ</t>
   </si>
   <si>
-    <t>СВЕТЛО-ГОЛУБОЙ</t>
+    <t>ЖЕЛТЫЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>88-90</t>
@@ -1080,7 +1080,7 @@
     <t>ЛАОССКАЯ НАРОДНАЯ ДЕМОКРАТИЧЕСКАЯ РЕСПУБЛИКА</t>
   </si>
   <si>
-    <t>ЗЕЛЕНЫЙ МЕЛАНЖ</t>
+    <t>СИНИЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>90-92</t>
@@ -1089,7 +1089,7 @@
     <t>ЛАТВИЯ</t>
   </si>
   <si>
-    <t>ЖЕЛТЫЙ МЕЛАНЖ</t>
+    <t>КРАСНЫЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>92-94</t>
@@ -1098,7 +1098,7 @@
     <t>ЛЕСОТО</t>
   </si>
   <si>
-    <t>СИНИЙ МЕЛАНЖ</t>
+    <t>РОЗОВЫЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>94-96</t>
@@ -1107,7 +1107,7 @@
     <t>ЛИБЕРИЯ</t>
   </si>
   <si>
-    <t>КРАСНЫЙ МЕЛАНЖ</t>
+    <t>ФИОЛЕТОВЫЙ МЕЛАНЖ</t>
   </si>
   <si>
     <t>96-98</t>
@@ -1116,7 +1116,7 @@
     <t>ЛИВАН</t>
   </si>
   <si>
-    <t>РОЗОВЫЙ МЕЛАНЖ</t>
+    <t>ЖЕЛТО-ЗЕЛЕНЫЙ</t>
   </si>
   <si>
     <t>98-100</t>
@@ -1125,7 +1125,7 @@
     <t>ЛИВИЯ</t>
   </si>
   <si>
-    <t>ФИОЛЕТОВЫЙ МЕЛАНЖ</t>
+    <t>МЕЛАНЖ</t>
   </si>
   <si>
     <t>50-56</t>
@@ -1134,16 +1134,10 @@
     <t>ЛИТВА</t>
   </si>
   <si>
-    <t>ЖЕЛТО-ЗЕЛЕНЫЙ</t>
-  </si>
-  <si>
     <t>56-62</t>
   </si>
   <si>
     <t>ЛИХТЕНШТЕЙН</t>
-  </si>
-  <si>
-    <t>МЕЛАНЖ</t>
   </si>
   <si>
     <t>62-68</t>
@@ -15709,7 +15703,11 @@
       <formula1>'Справочники'!$F$2:$F$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1045" type="textLength">
+    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N7:N1045" type="list">
+      <formula1>'Справочники'!$I$2:$I$243</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J1045" type="textLength">
       <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15717,20 +15715,12 @@
       <formula1>'Справочники'!$J$2:$J$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="N7:N1045" type="list">
-      <formula1>'Справочники'!$I$2:$I$243</formula1>
+    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1045" type="textLength">
+      <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="I7:I1045" type="list">
       <formula1>'Справочники'!$G$2:$G$4</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F3 F7:F1045" type="list">
-      <formula1>'Справочники'!$D$2:$D$51</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J1045" type="textLength">
-      <formula1>100</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C6 G6:H6" type="textLength">
@@ -15747,6 +15737,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B7:B45" type="textLength">
       <formula1>129</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" imeMode="noControl" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F3 F7:F1045" type="list">
+      <formula1>'Справочники'!$D$2:$D$51</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -17116,831 +17110,961 @@
       </c>
     </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="111">
-      <c r="E111" s="1" t="s">
+      <c r="E111" t="n"/>
+      <c r="H111" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="I111" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="I111" s="32" t="s">
+    </row>
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="112">
+      <c r="E112" t="n"/>
+      <c r="H112" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="112">
-      <c r="E112" s="1" t="s">
+      <c r="I112" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="H112" s="1" t="s">
+    </row>
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="113">
+      <c r="E113" s="1" t="n"/>
+      <c r="H113" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I112" s="32" t="s">
+      <c r="I113" s="32" t="s">
         <v>348</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="113">
-      <c r="H113" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="114">
+      <c r="E114" s="1" t="n"/>
+      <c r="H114" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I113" s="32" t="s">
+      <c r="I114" s="32" t="s">
         <v>350</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="114">
-      <c r="H114" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="115">
+      <c r="E115" s="1" t="n"/>
+      <c r="H115" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="I114" s="32" t="s">
+      <c r="I115" s="32" t="s">
         <v>352</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="115">
-      <c r="H115" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="116">
+      <c r="E116" s="1" t="n"/>
+      <c r="H116" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="I115" s="32" t="s">
+      <c r="I116" s="32" t="s">
         <v>354</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="116">
-      <c r="H116" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="117">
+      <c r="E117" s="1" t="n"/>
+      <c r="H117" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I116" s="32" t="s">
+      <c r="I117" s="32" t="s">
         <v>356</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="117">
-      <c r="H117" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="118">
+      <c r="E118" s="1" t="n"/>
+      <c r="H118" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="I117" s="32" t="s">
+      <c r="I118" s="32" t="s">
         <v>358</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="118">
-      <c r="H118" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="119">
+      <c r="E119" s="1" t="n"/>
+      <c r="H119" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I118" s="32" t="s">
+      <c r="I119" s="32" t="s">
         <v>360</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="119">
-      <c r="H119" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="120">
+      <c r="E120" s="1" t="n"/>
+      <c r="H120" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I119" s="32" t="s">
+      <c r="I120" s="32" t="s">
         <v>362</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="120">
-      <c r="H120" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="121">
+      <c r="E121" s="1" t="n"/>
+      <c r="H121" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I120" s="32" t="s">
+      <c r="I121" s="32" t="s">
         <v>364</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="121">
-      <c r="H121" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="122">
+      <c r="E122" s="1" t="n"/>
+      <c r="H122" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I121" s="32" t="s">
+      <c r="I122" s="32" t="s">
         <v>366</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="122">
-      <c r="H122" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="123">
+      <c r="E123" s="1" t="n"/>
+      <c r="H123" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I122" s="32" t="s">
+      <c r="I123" s="32" t="s">
         <v>368</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="123">
-      <c r="H123" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="124">
+      <c r="E124" s="1" t="n"/>
+      <c r="H124" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="I123" s="32" t="s">
+      <c r="I124" s="32" t="s">
         <v>370</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="124">
-      <c r="H124" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="125">
+      <c r="E125" s="1" t="n"/>
+      <c r="H125" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I124" s="32" t="s">
+      <c r="I125" s="32" t="s">
         <v>372</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="125">
-      <c r="H125" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="126">
+      <c r="E126" s="1" t="n"/>
+      <c r="H126" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I125" s="32" t="s">
+      <c r="I126" s="32" t="s">
         <v>374</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="126">
-      <c r="H126" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="127">
+      <c r="E127" s="1" t="n"/>
+      <c r="H127" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I126" s="32" t="s">
+      <c r="I127" s="32" t="s">
         <v>376</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="127">
-      <c r="H127" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="128">
+      <c r="E128" s="1" t="n"/>
+      <c r="H128" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="I127" s="32" t="s">
+      <c r="I128" s="32" t="s">
         <v>378</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="128">
-      <c r="H128" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="129">
+      <c r="E129" s="1" t="n"/>
+      <c r="H129" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="I128" s="32" t="s">
+      <c r="I129" s="32" t="s">
         <v>380</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="129">
-      <c r="H129" s="35" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="130">
+      <c r="E130" s="1" t="n"/>
+      <c r="H130" s="35" t="s">
         <v>381</v>
       </c>
-      <c r="I129" s="32" t="s">
+      <c r="I130" s="32" t="s">
         <v>382</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="130">
-      <c r="H130" s="35" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="131">
+      <c r="E131" s="1" t="n"/>
+      <c r="H131" s="35" t="s">
         <v>383</v>
       </c>
-      <c r="I130" s="32" t="s">
+      <c r="I131" s="32" t="s">
         <v>384</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="131">
-      <c r="H131" s="35" t="s">
+    <row hidden="false" ht="14" outlineLevel="0" r="132">
+      <c r="E132" s="1" t="n"/>
+      <c r="H132" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="I131" s="32" t="s">
+      <c r="I132" s="32" t="s">
         <v>386</v>
       </c>
     </row>
-    <row hidden="false" ht="14" outlineLevel="0" r="132">
-      <c r="H132" s="35" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="133">
+      <c r="E133" s="1" t="n"/>
+      <c r="H133" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="I132" s="32" t="s">
+      <c r="I133" s="32" t="s">
         <v>388</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="133">
-      <c r="H133" s="35" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="134">
+      <c r="E134" s="1" t="n"/>
+      <c r="H134" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="I133" s="32" t="s">
+      <c r="I134" s="32" t="s">
         <v>390</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="134">
-      <c r="H134" s="35" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="135">
+      <c r="E135" s="1" t="n"/>
+      <c r="H135" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="I134" s="32" t="s">
+      <c r="I135" s="32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="135">
-      <c r="H135" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="136">
+      <c r="E136" s="1" t="n"/>
+      <c r="H136" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="I135" s="32" t="s">
+      <c r="I136" s="32" t="s">
         <v>394</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="136">
-      <c r="H136" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="137">
+      <c r="E137" s="1" t="n"/>
+      <c r="H137" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I136" s="32" t="s">
+      <c r="I137" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="137">
-      <c r="H137" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="138">
+      <c r="E138" s="1" t="n"/>
+      <c r="H138" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="I137" s="32" t="s">
+      <c r="I138" s="32" t="s">
         <v>398</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="138">
-      <c r="H138" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="139">
+      <c r="E139" s="1" t="n"/>
+      <c r="H139" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I138" s="32" t="s">
+      <c r="I139" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="139">
-      <c r="H139" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="140">
+      <c r="E140" s="1" t="n"/>
+      <c r="H140" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="I139" s="32" t="s">
+      <c r="I140" s="32" t="s">
         <v>402</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="140">
-      <c r="H140" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="141">
+      <c r="E141" s="1" t="n"/>
+      <c r="H141" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I140" s="32" t="s">
+      <c r="I141" s="32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="141">
-      <c r="H141" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="142">
+      <c r="E142" s="1" t="n"/>
+      <c r="H142" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I141" s="32" t="s">
+      <c r="I142" s="32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="142">
-      <c r="H142" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="143">
+      <c r="E143" s="1" t="n"/>
+      <c r="H143" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="I142" s="32" t="s">
+      <c r="I143" s="32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="143">
-      <c r="H143" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="144">
+      <c r="E144" s="1" t="n"/>
+      <c r="H144" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I143" s="32" t="s">
+      <c r="I144" s="32" t="s">
         <v>410</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="144">
-      <c r="H144" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="145">
+      <c r="E145" s="1" t="n"/>
+      <c r="H145" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I144" s="32" t="s">
+      <c r="I145" s="32" t="s">
         <v>412</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="145">
-      <c r="H145" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="146">
+      <c r="E146" s="1" t="n"/>
+      <c r="H146" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="I145" s="32" t="s">
+      <c r="I146" s="32" t="s">
         <v>414</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="146">
-      <c r="H146" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="147">
+      <c r="E147" s="1" t="n"/>
+      <c r="H147" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I146" s="32" t="s">
+      <c r="I147" s="32" t="s">
         <v>416</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="147">
-      <c r="H147" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="148">
+      <c r="E148" s="1" t="n"/>
+      <c r="H148" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="I147" s="32" t="s">
+      <c r="I148" s="32" t="s">
         <v>418</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="148">
-      <c r="H148" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="149">
+      <c r="E149" s="1" t="n"/>
+      <c r="H149" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="I148" s="32" t="s">
+      <c r="I149" s="32" t="s">
         <v>420</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="149">
-      <c r="H149" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="150">
+      <c r="E150" s="1" t="n"/>
+      <c r="H150" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I149" s="32" t="s">
+      <c r="I150" s="32" t="s">
         <v>422</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="150">
-      <c r="H150" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="151">
+      <c r="E151" s="1" t="n"/>
+      <c r="H151" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I150" s="32" t="s">
+      <c r="I151" s="32" t="s">
         <v>424</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="151">
-      <c r="H151" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="152">
+      <c r="E152" s="1" t="n"/>
+      <c r="H152" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I151" s="32" t="s">
+      <c r="I152" s="32" t="s">
         <v>426</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="152">
-      <c r="H152" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="153">
+      <c r="E153" s="1" t="n"/>
+      <c r="H153" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I152" s="32" t="s">
+      <c r="I153" s="32" t="s">
         <v>428</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="153">
-      <c r="H153" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="154">
+      <c r="E154" s="1" t="n"/>
+      <c r="H154" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I153" s="32" t="s">
+      <c r="I154" s="32" t="s">
         <v>430</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="154">
-      <c r="H154" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="155">
+      <c r="E155" s="1" t="n"/>
+      <c r="H155" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="I154" s="32" t="s">
+      <c r="I155" s="32" t="s">
         <v>432</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="155">
-      <c r="H155" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="156">
+      <c r="E156" s="1" t="n"/>
+      <c r="H156" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="I155" s="32" t="s">
+      <c r="I156" s="32" t="s">
         <v>434</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="156">
-      <c r="H156" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="157">
+      <c r="E157" s="1" t="n"/>
+      <c r="H157" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="I156" s="32" t="s">
+      <c r="I157" s="32" t="s">
         <v>436</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="157">
-      <c r="H157" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="158">
+      <c r="E158" s="1" t="n"/>
+      <c r="H158" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I157" s="32" t="s">
+      <c r="I158" s="32" t="s">
         <v>438</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="158">
-      <c r="H158" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="159">
+      <c r="E159" s="1" t="n"/>
+      <c r="H159" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I158" s="32" t="s">
+      <c r="I159" s="32" t="s">
         <v>440</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="159">
-      <c r="H159" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="160">
+      <c r="E160" s="1" t="n"/>
+      <c r="H160" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="I159" s="32" t="s">
+      <c r="I160" s="32" t="s">
         <v>442</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="160">
-      <c r="H160" s="1" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="161">
+      <c r="E161" s="1" t="n"/>
+      <c r="I161" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="I160" s="32" t="s">
+    </row>
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="162">
+      <c r="E162" s="1" t="n"/>
+      <c r="I162" s="32" t="s">
         <v>444</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="161">
-      <c r="I161" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="163">
+      <c r="E163" s="1" t="n"/>
+      <c r="I163" s="32" t="s">
         <v>445</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="162">
-      <c r="I162" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="164">
+      <c r="E164" s="1" t="n"/>
+      <c r="I164" s="32" t="s">
         <v>446</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="163">
-      <c r="I163" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="165">
+      <c r="E165" s="1" t="n"/>
+      <c r="I165" s="32" t="s">
         <v>447</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="164">
-      <c r="I164" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="166">
+      <c r="E166" s="1" t="n"/>
+      <c r="I166" s="32" t="s">
         <v>448</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="165">
-      <c r="I165" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="167">
+      <c r="E167" s="1" t="n"/>
+      <c r="I167" s="32" t="s">
         <v>449</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="166">
-      <c r="I166" s="32" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="167">
-      <c r="I167" s="32" t="s">
-        <v>451</v>
-      </c>
-    </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="168">
+      <c r="E168" s="1" t="n"/>
       <c r="I168" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="169">
+      <c r="E169" s="1" t="n"/>
       <c r="I169" s="32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="170">
+      <c r="E170" s="1" t="n"/>
+      <c r="I170" s="32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row hidden="false" ht="14" outlineLevel="0" r="171">
+      <c r="E171" s="1" t="n"/>
+      <c r="I171" s="32" t="s">
         <v>452</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="170">
-      <c r="I170" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="172">
+      <c r="E172" s="1" t="n"/>
+      <c r="I172" s="32" t="s">
         <v>453</v>
       </c>
     </row>
-    <row hidden="false" ht="14" outlineLevel="0" r="171">
-      <c r="I171" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="173">
+      <c r="E173" s="1" t="n"/>
+      <c r="I173" s="32" t="s">
         <v>454</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="172">
-      <c r="I172" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="174">
+      <c r="E174" s="1" t="n"/>
+      <c r="I174" s="32" t="s">
         <v>455</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="173">
-      <c r="I173" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="175">
+      <c r="E175" s="1" t="n"/>
+      <c r="I175" s="32" t="s">
         <v>456</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="174">
-      <c r="I174" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="176">
+      <c r="E176" s="1" t="n"/>
+      <c r="I176" s="32" t="s">
         <v>457</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="175">
-      <c r="I175" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="177">
+      <c r="E177" s="1" t="n"/>
+      <c r="I177" s="32" t="s">
         <v>458</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="176">
-      <c r="I176" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="178">
+      <c r="E178" s="1" t="n"/>
+      <c r="I178" s="32" t="s">
         <v>459</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="177">
-      <c r="I177" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="179">
+      <c r="E179" s="1" t="n"/>
+      <c r="I179" s="32" t="s">
         <v>460</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="178">
-      <c r="I178" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="180">
+      <c r="E180" s="1" t="n"/>
+      <c r="I180" s="32" t="s">
         <v>461</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="179">
-      <c r="I179" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="181">
+      <c r="E181" s="1" t="n"/>
+      <c r="I181" s="32" t="s">
         <v>462</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="180">
-      <c r="I180" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="182">
+      <c r="E182" s="1" t="n"/>
+      <c r="I182" s="32" t="s">
         <v>463</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="181">
-      <c r="I181" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="183">
+      <c r="E183" s="1" t="n"/>
+      <c r="I183" s="32" t="s">
         <v>464</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="182">
-      <c r="I182" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="184">
+      <c r="E184" s="1" t="n"/>
+      <c r="I184" s="32" t="s">
         <v>465</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="183">
-      <c r="I183" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="185">
+      <c r="E185" s="1" t="n"/>
+      <c r="I185" s="32" t="s">
         <v>466</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="184">
-      <c r="I184" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="186">
+      <c r="E186" s="1" t="n"/>
+      <c r="I186" s="32" t="s">
         <v>467</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="185">
-      <c r="I185" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="187">
+      <c r="E187" s="1" t="n"/>
+      <c r="I187" s="32" t="s">
         <v>468</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="186">
-      <c r="I186" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="188">
+      <c r="E188" s="1" t="n"/>
+      <c r="I188" s="32" t="s">
         <v>469</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="187">
-      <c r="I187" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="189">
+      <c r="E189" s="1" t="n"/>
+      <c r="I189" s="32" t="s">
         <v>470</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="188">
-      <c r="I188" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="190">
+      <c r="E190" s="1" t="n"/>
+      <c r="I190" s="32" t="s">
         <v>471</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="189">
-      <c r="I189" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="191">
+      <c r="E191" s="1" t="n"/>
+      <c r="I191" s="32" t="s">
         <v>472</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="190">
-      <c r="I190" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="192">
+      <c r="E192" s="1" t="n"/>
+      <c r="I192" s="32" t="s">
         <v>473</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="191">
-      <c r="I191" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="193">
+      <c r="E193" s="1" t="n"/>
+      <c r="I193" s="32" t="s">
         <v>474</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="192">
-      <c r="I192" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="194">
+      <c r="E194" s="1" t="n"/>
+      <c r="I194" s="32" t="s">
         <v>475</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="193">
-      <c r="I193" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="195">
+      <c r="E195" s="1" t="n"/>
+      <c r="I195" s="32" t="s">
         <v>476</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="194">
-      <c r="I194" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="196">
+      <c r="E196" s="1" t="n"/>
+      <c r="I196" s="32" t="s">
         <v>477</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="195">
-      <c r="I195" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="197">
+      <c r="E197" s="1" t="n"/>
+      <c r="I197" s="32" t="s">
         <v>478</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="196">
-      <c r="I196" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="198">
+      <c r="E198" s="1" t="n"/>
+      <c r="I198" s="32" t="s">
         <v>479</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="197">
-      <c r="I197" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="199">
+      <c r="E199" s="1" t="n"/>
+      <c r="I199" s="32" t="s">
         <v>480</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="198">
-      <c r="I198" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="200">
+      <c r="E200" s="1" t="n"/>
+      <c r="I200" s="32" t="s">
         <v>481</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="199">
-      <c r="I199" s="32" t="s">
+    <row hidden="false" ht="14" outlineLevel="0" r="201">
+      <c r="E201" s="1" t="n"/>
+      <c r="I201" s="32" t="s">
         <v>482</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="200">
-      <c r="I200" s="32" t="s">
+    <row hidden="false" ht="14" outlineLevel="0" r="202">
+      <c r="E202" s="1" t="n"/>
+      <c r="I202" s="32" t="s">
         <v>483</v>
       </c>
     </row>
-    <row hidden="false" ht="14" outlineLevel="0" r="201">
-      <c r="I201" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="203">
+      <c r="E203" s="1" t="n"/>
+      <c r="I203" s="32" t="s">
         <v>484</v>
       </c>
     </row>
-    <row hidden="false" ht="14" outlineLevel="0" r="202">
-      <c r="I202" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="204">
+      <c r="E204" s="1" t="n"/>
+      <c r="I204" s="32" t="s">
         <v>485</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="203">
-      <c r="I203" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="205">
+      <c r="E205" s="1" t="n"/>
+      <c r="I205" s="32" t="s">
         <v>486</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="204">
-      <c r="I204" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="206">
+      <c r="E206" s="1" t="n"/>
+      <c r="I206" s="32" t="s">
         <v>487</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="205">
-      <c r="I205" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="207">
+      <c r="E207" s="1" t="n"/>
+      <c r="I207" s="32" t="s">
         <v>488</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="206">
-      <c r="I206" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="208">
+      <c r="E208" s="1" t="n"/>
+      <c r="I208" s="32" t="s">
         <v>489</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="207">
-      <c r="I207" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="209">
+      <c r="E209" s="1" t="n"/>
+      <c r="I209" s="32" t="s">
         <v>490</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="208">
-      <c r="I208" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="210">
+      <c r="E210" s="1" t="n"/>
+      <c r="I210" s="32" t="s">
         <v>491</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="209">
-      <c r="I209" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="211">
+      <c r="E211" s="1" t="n"/>
+      <c r="I211" s="32" t="s">
         <v>492</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="210">
-      <c r="I210" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="212">
+      <c r="E212" s="1" t="n"/>
+      <c r="I212" s="32" t="s">
         <v>493</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="211">
-      <c r="I211" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="213">
+      <c r="E213" s="1" t="n"/>
+      <c r="I213" s="32" t="s">
         <v>494</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="212">
-      <c r="I212" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="214">
+      <c r="E214" s="1" t="n"/>
+      <c r="I214" s="32" t="s">
         <v>495</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="213">
-      <c r="I213" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="215">
+      <c r="E215" s="1" t="n"/>
+      <c r="I215" s="32" t="s">
         <v>496</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="214">
-      <c r="I214" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="216">
+      <c r="E216" s="1" t="n"/>
+      <c r="I216" s="32" t="s">
         <v>497</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="215">
-      <c r="I215" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="217">
+      <c r="E217" s="1" t="n"/>
+      <c r="I217" s="32" t="s">
         <v>498</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="216">
-      <c r="I216" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="218">
+      <c r="E218" s="1" t="n"/>
+      <c r="I218" s="32" t="s">
         <v>499</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="217">
-      <c r="I217" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="219">
+      <c r="E219" s="1" t="n"/>
+      <c r="I219" s="32" t="s">
         <v>500</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="218">
-      <c r="I218" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="220">
+      <c r="E220" s="1" t="n"/>
+      <c r="I220" s="32" t="s">
         <v>501</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="219">
-      <c r="I219" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="221">
+      <c r="E221" s="1" t="n"/>
+      <c r="I221" s="32" t="s">
         <v>502</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="220">
-      <c r="I220" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="222">
+      <c r="E222" s="1" t="n"/>
+      <c r="I222" s="32" t="s">
         <v>503</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="221">
-      <c r="I221" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="223">
+      <c r="E223" s="1" t="n"/>
+      <c r="I223" s="32" t="s">
         <v>504</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="222">
-      <c r="I222" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="224">
+      <c r="E224" s="1" t="n"/>
+      <c r="I224" s="32" t="s">
         <v>505</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="223">
-      <c r="I223" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="225">
+      <c r="E225" s="1" t="n"/>
+      <c r="I225" s="32" t="s">
         <v>506</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="224">
-      <c r="I224" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="226">
+      <c r="E226" s="1" t="n"/>
+      <c r="I226" s="32" t="s">
         <v>507</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="225">
-      <c r="I225" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="227">
+      <c r="E227" s="1" t="n"/>
+      <c r="I227" s="32" t="s">
         <v>508</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="226">
-      <c r="I226" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="228">
+      <c r="E228" s="1" t="n"/>
+      <c r="I228" s="32" t="s">
         <v>509</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="227">
-      <c r="I227" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="229">
+      <c r="E229" s="1" t="n"/>
+      <c r="I229" s="32" t="s">
         <v>510</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="228">
-      <c r="I228" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="230">
+      <c r="E230" s="1" t="n"/>
+      <c r="I230" s="32" t="s">
         <v>511</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="229">
-      <c r="I229" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="231">
+      <c r="E231" s="1" t="n"/>
+      <c r="I231" s="32" t="s">
         <v>512</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="230">
-      <c r="I230" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="232">
+      <c r="E232" s="1" t="n"/>
+      <c r="I232" s="32" t="s">
         <v>513</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="231">
-      <c r="I231" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="233">
+      <c r="E233" s="1" t="n"/>
+      <c r="I233" s="32" t="s">
         <v>514</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="232">
-      <c r="I232" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="234">
+      <c r="E234" s="1" t="n"/>
+      <c r="I234" s="32" t="s">
         <v>515</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="233">
-      <c r="I233" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="235">
+      <c r="E235" s="1" t="n"/>
+      <c r="I235" s="32" t="s">
         <v>516</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="234">
-      <c r="I234" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="236">
+      <c r="E236" s="1" t="n"/>
+      <c r="I236" s="32" t="s">
         <v>517</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="235">
-      <c r="I235" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="237">
+      <c r="E237" s="1" t="n"/>
+      <c r="I237" s="32" t="s">
         <v>518</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="236">
-      <c r="I236" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="238">
+      <c r="E238" s="1" t="n"/>
+      <c r="I238" s="32" t="s">
         <v>519</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="237">
-      <c r="I237" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="239">
+      <c r="E239" s="1" t="n"/>
+      <c r="I239" s="32" t="s">
         <v>520</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="238">
-      <c r="I238" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="240">
+      <c r="E240" s="1" t="n"/>
+      <c r="I240" s="32" t="s">
         <v>521</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="239">
-      <c r="I239" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="241">
+      <c r="E241" s="1" t="n"/>
+      <c r="I241" s="32" t="s">
         <v>522</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="240">
-      <c r="I240" s="32" t="s">
+    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="242">
+      <c r="E242" s="1" t="n"/>
+      <c r="I242" s="32" t="s">
         <v>523</v>
       </c>
     </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="241">
-      <c r="I241" s="32" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="242">
-      <c r="I242" s="32" t="s">
-        <v>525</v>
-      </c>
-    </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="243">
+      <c r="E243" s="1" t="n"/>
       <c r="I243" s="32" t="n"/>
     </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="244">
+      <c r="E244" s="1" t="n"/>
       <c r="I244" s="32" t="n"/>
     </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="245">
+      <c r="E245" s="1" t="n"/>
       <c r="I245" s="32" t="n"/>
     </row>
     <row hidden="false" ht="13.8000001907349" outlineLevel="0" r="246">
+      <c r="E246" s="1" t="n"/>
       <c r="I246" s="32" t="n"/>
     </row>
   </sheetData>
@@ -17977,13 +18101,13 @@
   <sheetData>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="2">
       <c r="C2" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>528</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="3">
@@ -17994,7 +18118,7 @@
         <v>341</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="4">
@@ -18002,10 +18126,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="5">
@@ -18013,10 +18137,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="6">
@@ -18024,10 +18148,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="7">
@@ -18035,10 +18159,10 @@
         <v>16</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="8">
@@ -18046,10 +18170,10 @@
         <v>17</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="9">
@@ -18057,10 +18181,10 @@
         <v>18</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="10">
@@ -18068,10 +18192,10 @@
         <v>19</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="11">
@@ -18079,10 +18203,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="12">
@@ -18090,10 +18214,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="13">
@@ -18101,10 +18225,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="14">
@@ -18112,10 +18236,10 @@
         <v>23</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="15">
@@ -18123,10 +18247,10 @@
         <v>24</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="16">
@@ -18134,10 +18258,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="17">
@@ -18145,10 +18269,10 @@
         <v>26</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="18">
@@ -18156,10 +18280,10 @@
         <v>27</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="19">
@@ -18167,10 +18291,10 @@
         <v>28</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="20">
@@ -18178,10 +18302,10 @@
         <v>29</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="21">
@@ -18189,10 +18313,10 @@
         <v>30</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="22">
@@ -18200,7 +18324,7 @@
         <v>31</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="23">
@@ -18208,7 +18332,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="24">
@@ -18216,7 +18340,7 @@
         <v>33</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="25">
@@ -18224,7 +18348,7 @@
         <v>34</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="26">
@@ -18232,7 +18356,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="27">
@@ -18240,7 +18364,7 @@
         <v>36</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row hidden="false" ht="12.8000001907349" outlineLevel="0" r="28">
@@ -18685,106 +18809,106 @@
   <sheetData>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="39" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="39" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="39" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="41" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="39" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="39" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
       <c r="A8" s="39" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
       <c r="A9" s="39" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
       <c r="A10" s="39" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="39" t="n"/>
       <c r="B11" s="42" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
       <c r="A12" s="39" t="n"/>
       <c r="B12" s="42" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
       <c r="A13" s="39" t="n"/>
       <c r="B13" s="42" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
       <c r="A14" s="39" t="n"/>
       <c r="B14" s="42" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">

--- a/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="576">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t xml:space="preserve">ЛЮКСЕМБУРГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КАМУФЛЯЖНЫЙ</t>
   </si>
   <si>
     <t xml:space="preserve">МАВРИКИЙ</t>
@@ -2257,7 +2260,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15145,10 +15148,10 @@
   <dimension ref="A1:I246"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E111" activeCellId="0" sqref="E111"/>
+      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.35546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.34"/>
@@ -16134,278 +16137,281 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E113" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="H113" s="28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="28" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="28" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="28" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="28" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="28" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="28" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="28" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="28" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="28" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="28" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="28" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="28" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="28" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="28" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="28" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="28" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="28" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="28" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="28" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="28" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="28" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="28" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="28" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="28" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="28" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="28" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="28" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="28" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="28" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="28" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16415,372 +16421,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="28" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="28" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="28" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="28" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="28" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="28" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="28" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="28" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="28" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="28" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="28" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="28" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="28" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="28" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="28" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="28" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="28" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="28" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="28" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="28" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="28" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="28" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="28" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="28" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="28" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="28" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="28" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="28" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="28" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="28" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="28" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="28" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="28" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="28" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="28" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="28" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="28" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="28" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="28" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="28" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="28" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="28" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="28" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="28" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="28" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="28" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="28" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="28" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="28" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="28" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="28" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="28" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="28" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="28" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="28" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="28" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="28" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="28" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="28" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="28" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16799,7 +16805,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E2:E112">
+  <conditionalFormatting sqref="E2:E113">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -16823,7 +16829,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
@@ -16836,13 +16842,13 @@
         <v>65</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16850,13 +16856,13 @@
         <v>52</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16864,13 +16870,13 @@
         <v>76</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16878,79 +16884,79 @@
         <v>80</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="32" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="32" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="32" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="32" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16958,170 +16964,170 @@
         <v>19</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="32" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="32" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="32" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="32" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="32" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="32" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="32" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="32" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="32" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17131,177 +17137,177 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="32" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="32" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="32" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="32" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="32" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="32" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="32" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="32" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="32" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="32" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="32" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="32" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="32" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="32" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="32" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="32" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="32" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="32" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="32" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="32" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="32" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="32" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="32" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="32" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="32" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="32" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="32" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="32" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="32" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="32" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="32" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="32" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="32" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="32" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="32" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17311,57 +17317,57 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="32" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="32" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="32" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="32" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="32" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="32" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="32" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="32" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="32" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="32" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17485,7 +17491,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="215.56"/>
@@ -17493,106 +17499,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35"/>
       <c r="B11" s="38" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35"/>
       <c r="B12" s="38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35"/>
       <c r="B13" s="38" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
       <c r="B14" s="38" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
+++ b/app/download_dir/system_files/перчатки_по каждому размеру.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="575">
   <si>
     <t xml:space="preserve">Код ТНВЭД</t>
   </si>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">КИТАЙ</t>
   </si>
   <si>
-    <t xml:space="preserve">Отказное письмо</t>
+    <t xml:space="preserve">Декларация соответствия</t>
   </si>
   <si>
     <t xml:space="preserve">test</t>
@@ -248,9 +248,6 @@
     <t xml:space="preserve">АБХАЗИЯ</t>
   </si>
   <si>
-    <t xml:space="preserve">Декларация соответствия</t>
-  </si>
-  <si>
     <t xml:space="preserve">Наименование атрибута</t>
   </si>
   <si>
@@ -269,6 +266,9 @@
     <t xml:space="preserve">АВСТРАЛИЯ</t>
   </si>
   <si>
+    <t xml:space="preserve">Сертификат</t>
+  </si>
+  <si>
     <t xml:space="preserve">КРАГИ</t>
   </si>
   <si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t xml:space="preserve">АВСТРИЯ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сертификат</t>
   </si>
   <si>
     <t xml:space="preserve">БЕЖЕВЫЙ/СИНИЙ</t>
@@ -2257,10 +2254,10 @@
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="O7" activeCellId="0" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.34"/>
@@ -15098,7 +15095,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O7:O1045" type="list">
-      <formula1>Справочники!$I$2:$I$4</formula1>
+      <formula1>Справочники!$I$2:$I$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="lessThan" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G7:G1045" type="textLength">
@@ -15147,11 +15144,11 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E113" activeCellId="0" sqref="E113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.37109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.34"/>
@@ -15205,33 +15202,33 @@
         <v>70</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15250,402 +15247,399 @@
       <c r="H4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="29" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="28" t="s">
         <v>84</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="28" t="s">
         <v>90</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="H8" s="28" t="s">
         <v>93</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="H9" s="28" t="s">
         <v>96</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>98</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>100</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>102</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>108</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>110</v>
-      </c>
-      <c r="H16" s="28" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>112</v>
-      </c>
-      <c r="H17" s="28" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>116</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>122</v>
-      </c>
-      <c r="H22" s="28" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>124</v>
-      </c>
-      <c r="H23" s="28" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="H24" s="28" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>128</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>130</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>132</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E29" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>136</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>138</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>140</v>
-      </c>
-      <c r="H31" s="28" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>142</v>
-      </c>
-      <c r="H32" s="28" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H33" s="28" t="s">
         <v>144</v>
-      </c>
-      <c r="H33" s="28" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>146</v>
-      </c>
-      <c r="H34" s="28" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>148</v>
-      </c>
-      <c r="H35" s="28" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="28" t="s">
         <v>150</v>
-      </c>
-      <c r="H36" s="28" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H37" s="28" t="s">
         <v>152</v>
-      </c>
-      <c r="H37" s="28" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="28" t="s">
         <v>154</v>
-      </c>
-      <c r="H38" s="28" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="28" t="s">
         <v>156</v>
-      </c>
-      <c r="H39" s="28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E40" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="H40" s="28" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H41" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E42" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H42" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="H43" s="28" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H44" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="H44" s="28" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="H45" s="28" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E46" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H46" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="H46" s="28" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="H47" s="28" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="H48" s="28" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E49" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="H49" s="28" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="H50" s="28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E51" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="H51" s="28" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15653,356 +15647,356 @@
         <v>50</v>
       </c>
       <c r="H52" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E53" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="28" t="s">
         <v>183</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H54" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="H55" s="28" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E56" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H56" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="H56" s="28" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="28" t="s">
         <v>191</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E58" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H58" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E59" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H59" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E60" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" s="28" t="s">
         <v>197</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E61" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H61" s="28" t="s">
         <v>199</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E62" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="28" t="s">
         <v>201</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H64" s="28" t="s">
         <v>205</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="28" t="s">
         <v>207</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E66" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H66" s="28" t="s">
         <v>209</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H67" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H68" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H69" s="28" t="s">
         <v>215</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E70" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>217</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E71" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>219</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H72" s="28" t="s">
         <v>221</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H73" s="28" t="s">
         <v>223</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H74" s="28" t="s">
         <v>225</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>227</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H76" s="28" t="s">
         <v>229</v>
-      </c>
-      <c r="H76" s="28" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E77" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H77" s="28" t="s">
         <v>231</v>
-      </c>
-      <c r="H77" s="28" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E78" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H78" s="28" t="s">
         <v>233</v>
-      </c>
-      <c r="H78" s="28" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H79" s="28" t="s">
         <v>235</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H80" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="H80" s="28" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H81" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="H81" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E82" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H82" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H83" s="28" t="s">
         <v>243</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E84" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H84" s="28" t="s">
         <v>245</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E85" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H85" s="28" t="s">
         <v>247</v>
-      </c>
-      <c r="H85" s="28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E86" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H86" s="28" t="s">
         <v>249</v>
-      </c>
-      <c r="H86" s="28" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E87" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H87" s="28" t="s">
         <v>251</v>
-      </c>
-      <c r="H87" s="28" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E88" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H88" s="28" t="s">
         <v>253</v>
-      </c>
-      <c r="H88" s="28" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E89" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H89" s="28" t="s">
         <v>255</v>
-      </c>
-      <c r="H89" s="28" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E90" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="28" t="s">
         <v>257</v>
-      </c>
-      <c r="H90" s="28" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H91" s="28" t="s">
         <v>259</v>
-      </c>
-      <c r="H91" s="28" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E92" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H92" s="28" t="s">
         <v>261</v>
-      </c>
-      <c r="H92" s="28" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E93" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H93" s="28" t="s">
         <v>263</v>
-      </c>
-      <c r="H93" s="28" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H94" s="28" t="s">
         <v>265</v>
-      </c>
-      <c r="H94" s="28" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="28" t="s">
         <v>267</v>
-      </c>
-      <c r="H95" s="28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E96" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H96" s="28" t="s">
         <v>57</v>
@@ -16010,408 +16004,408 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E97" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H97" s="28" t="s">
         <v>270</v>
-      </c>
-      <c r="H97" s="28" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E98" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H98" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="H98" s="28" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="H99" s="28" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="H100" s="28" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H101" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="H101" s="28" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H102" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="H102" s="28" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E103" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H103" s="28" t="s">
         <v>282</v>
-      </c>
-      <c r="H103" s="28" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H104" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="H104" s="28" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H105" s="28" t="s">
         <v>286</v>
-      </c>
-      <c r="H105" s="28" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E106" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H106" s="28" t="s">
         <v>288</v>
-      </c>
-      <c r="H106" s="28" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E107" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H107" s="28" t="s">
         <v>290</v>
-      </c>
-      <c r="H107" s="28" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E108" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H108" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="H108" s="28" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E109" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H109" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="H109" s="28" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E110" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H110" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="H110" s="28" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E111" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H111" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="H111" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E112" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H112" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="H112" s="28" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E113" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H113" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="H113" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H123" s="28" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H124" s="28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H125" s="28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H126" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H127" s="28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H128" s="28" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H129" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H130" s="28" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H131" s="28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H132" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H133" s="28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H134" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H135" s="28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H136" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H137" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H138" s="28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H139" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H140" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H141" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H142" s="28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H143" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H144" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H145" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H146" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H147" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H148" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H149" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H150" s="28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H151" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H152" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H153" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H154" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H155" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H156" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H157" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H158" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H159" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H160" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H161" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H162" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H163" s="28" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H164" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H165" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H166" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H167" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16421,372 +16415,372 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H169" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H170" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H171" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H172" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H173" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H174" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H175" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H176" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H177" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H178" s="28" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H179" s="28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H180" s="28" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H181" s="28" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H182" s="28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H183" s="28" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H184" s="28" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H185" s="28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H186" s="28" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H187" s="28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H188" s="28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H189" s="28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H190" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H191" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H192" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H193" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H194" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H195" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H196" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H197" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H198" s="28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H199" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H200" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H201" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H202" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H203" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H204" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H205" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H206" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H207" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H208" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H209" s="28" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H210" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H211" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H212" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H213" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H214" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H215" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H216" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H217" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H218" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H220" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H221" s="28" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H222" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H223" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H224" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H225" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H226" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H227" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H228" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H229" s="28" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H230" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H231" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H232" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H233" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H234" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H235" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H236" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H237" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H238" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H239" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H240" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H241" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H242" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16829,7 +16823,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.78"/>
@@ -16842,13 +16836,13 @@
         <v>65</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>432</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="E2" s="31" t="s">
         <v>433</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16856,27 +16850,27 @@
         <v>52</v>
       </c>
       <c r="C3" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E3" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="32" t="s">
         <v>439</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16884,79 +16878,79 @@
         <v>80</v>
       </c>
       <c r="C5" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="E5" s="32" t="s">
         <v>442</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="E6" s="32" t="s">
         <v>445</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="E7" s="32" t="s">
         <v>448</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="E8" s="32" t="s">
         <v>451</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="32" t="s">
         <v>454</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>456</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>457</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>459</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="E11" s="32" t="s">
         <v>460</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16964,170 +16958,170 @@
         <v>19</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="E12" s="32" t="s">
         <v>462</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="32" t="s">
         <v>465</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>467</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="E14" s="32" t="s">
         <v>468</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="D15" s="32" t="s">
         <v>470</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="32" t="s">
         <v>471</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="E16" s="32" t="s">
         <v>474</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="D17" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="E17" s="32" t="s">
         <v>477</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D18" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="32" t="s">
         <v>480</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="E19" s="32" t="s">
         <v>483</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="E20" s="32" t="s">
         <v>486</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="E21" s="32" t="s">
         <v>489</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>491</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>493</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>495</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="E25" s="32" t="s">
         <v>497</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>499</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" s="32" t="s">
         <v>501</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="E28" s="32" t="s">
         <v>503</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17137,177 +17131,177 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="32" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="32" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="32" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="32" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="32" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="32" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="32" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="32" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="32" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="32" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="32" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="32" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="32" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="32" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="32" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17317,57 +17311,57 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="32" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="32" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17491,7 +17485,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="54.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="215.56"/>
@@ -17499,106 +17493,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="33" t="s">
+        <v>551</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>552</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>554</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>556</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
+        <v>557</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>558</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="36" t="s">
         <v>560</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>562</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
+        <v>563</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>564</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
+        <v>565</v>
+      </c>
+      <c r="B8" s="36" t="s">
         <v>566</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
+        <v>567</v>
+      </c>
+      <c r="B9" s="36" t="s">
         <v>568</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>570</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="35"/>
       <c r="B11" s="38" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="35"/>
       <c r="B12" s="38" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="35"/>
       <c r="B13" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="35"/>
       <c r="B14" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
